--- a/data/WD.xlsx
+++ b/data/WD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -23,15 +23,14 @@
   <si>
     <t xml:space="preserve">LeapYear</t>
   </si>
-  <si>
-    <t xml:space="preserve">floor_date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -68,7 +67,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,8 +77,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C337" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C337"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C397" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C397"/>
   <tableColumns count="3">
     <tableColumn id="1" name="date"/>
     <tableColumn id="2" name="WorkingDays"/>
@@ -90,10 +89,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C113" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C133" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C133"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="floor_date"/>
+    <tableColumn id="1" name="date"/>
     <tableColumn id="2" name="WorkingDays"/>
     <tableColumn id="3" name="LeapYear"/>
   </tableColumns>
@@ -379,12 +378,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -4090,6 +4089,666 @@
         <v>6</v>
       </c>
       <c r="C337" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B340" t="n">
+        <v>4.77781751058817</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-6.77781751058818</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.750000000000004</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-5.72218248941183</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.72218248941182</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-2.22218248941183</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.222182489411825</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3</v>
+      </c>
+      <c r="C371" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C373" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1.27781751058817</v>
+      </c>
+      <c r="C376" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.222182489411825</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>46143</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>46174</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.000000000000000888178419700125</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>46204</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3</v>
+      </c>
+      <c r="C380" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>46235</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>46266</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C383" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>46327</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>46357</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C385" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>46388</v>
+      </c>
+      <c r="B386" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>46419</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>46447</v>
+      </c>
+      <c r="B388" t="n">
+        <v>-2.22218248941183</v>
+      </c>
+      <c r="C388" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>46478</v>
+      </c>
+      <c r="B389" t="n">
+        <v>7.22218248941182</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>46508</v>
+      </c>
+      <c r="B390" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>46539</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.000000000000000888178419700125</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>46569</v>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C392" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>46600</v>
+      </c>
+      <c r="B393" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C393" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>46631</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>46661</v>
+      </c>
+      <c r="B395" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>46692</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>46722</v>
+      </c>
+      <c r="B397" t="n">
+        <v>6</v>
+      </c>
+      <c r="C397" t="n">
         <v>-0.0000000000000106581410364015</v>
       </c>
     </row>
@@ -4103,16 +4762,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5350,6 +6009,226 @@
         <v>4</v>
       </c>
       <c r="C113" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.77781751058817</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.27781751058818</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.72218248941183</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.750000000000004</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.22218248941182</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.222182489411826</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-4.77781751058818</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.222182489411826</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-4.77781751058818</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>46204</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>46388</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-7.22218248941183</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>46478</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.72218248941182</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>46569</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>46661</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+      <c r="C133" t="n">
         <v>-0.0000000000000106581410364015</v>
       </c>
     </row>

--- a/data/WD.xlsx
+++ b/data/WD.xlsx
@@ -4141,7 +4141,7 @@
         <v>45047</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C342" t="n">
         <v>0.0000000000000106581410364015</v>
@@ -6028,7 +6028,7 @@
         <v>45017</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.27781751058818</v>
+        <v>-4.77781751058817</v>
       </c>
       <c r="C115" t="n">
         <v>0.0000000000000248689957516035</v>
